--- a/Crud_Completo/dados.xlsx
+++ b/Crud_Completo/dados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,17 +453,85 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ciclano</t>
+          <t>Pessoa1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ciclano@outlook.com</t>
+          <t>Pessoa1@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pessoa2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Pessoa2@outlook.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pessoa3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Pessoa3@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pessoa4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Pessoa4@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pessoa5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Pessoa5@hotmail.com</t>
         </is>
       </c>
     </row>
